--- a/Översikt GULLSPÅNG.xlsx
+++ b/Översikt GULLSPÅNG.xlsx
@@ -572,7 +572,7 @@
         <v>43718</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44580</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44832</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>43335</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43336</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>43342</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43353</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43363</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43367</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43392</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43412</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43418</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43431</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43468</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43468</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43468</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43497</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>43497</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43504</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43525</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43530</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43532</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43532</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>43532</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>43544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43551</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43589</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43636</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43664</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43664</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>43691</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43691</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43691</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43691</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>43693</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43705</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43718</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43719</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43725</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43726</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43726</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43727</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43727</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43734</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43737</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43754</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43772</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43781</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43782</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43782</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43783</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43783</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>43803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>43805</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43811</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43811</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43838</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43844</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43847</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43850</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43854</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43857</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43861</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43861</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43867</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43880</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43906</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43906</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>43909</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>43923</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>43944</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>43944</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>43949</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>43997</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44018</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44064</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44069</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44083</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44090</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44104</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44105</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>44112</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>44112</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44112</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44117</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44117</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44117</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44118</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44118</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44137</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44146</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44159</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44168</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44168</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44207</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44216</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44243</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44250</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44265</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44265</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44278</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44278</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44278</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44278</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44284</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44292</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44293</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44300</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>44321</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44334</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10399,7 +10399,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         <v>44342</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>44377</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44377</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44379</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44386</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>44398</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>44400</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>44407</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>44419</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>44421</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>44421</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>44421</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44433</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>44434</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>44434</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         <v>44440</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>44453</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>44454</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44466</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>44481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44512</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44525</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44536</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>44538</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>44552</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>44552</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>44579</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44580</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44614</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>44614</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>44621</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>44652</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>44735</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>44738</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44746</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44746</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44746</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44797</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44846</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44847</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44847</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44855</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44861</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>44861</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44861</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44864</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>44864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>44864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44865</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44879</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44879</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>44880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>44881</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44897</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>44923</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>44965</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44965</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>44965</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>44970</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>44970</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>44970</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44977</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44977</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44977</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45001</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>45001</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>45001</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>45002</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>45070</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>45075</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>45090</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45097</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>45097</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45097</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>45097</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>45111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>45111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>45153</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt GULLSPÅNG.xlsx
+++ b/Översikt GULLSPÅNG.xlsx
@@ -572,7 +572,7 @@
         <v>43718</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44580</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44832</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>43335</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43336</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>43342</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43353</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43363</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43367</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43392</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43412</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43418</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43431</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43468</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43468</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43468</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43497</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>43497</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43504</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43525</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43530</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43532</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43532</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>43532</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>43544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43551</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43589</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43636</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43664</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43664</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>43691</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43691</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43691</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43691</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>43693</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43705</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43718</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43719</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43725</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43726</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43726</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43727</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43727</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43734</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43737</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43754</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43772</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43781</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43782</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43782</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43783</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43783</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>43803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>43805</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43811</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43811</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43838</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43844</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43847</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43850</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43854</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43857</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43861</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43861</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43867</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43880</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43906</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43906</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>43909</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>43923</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>43944</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>43944</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>43949</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>43997</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44018</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44064</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44069</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44083</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44090</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44104</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44105</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>44112</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>44112</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44112</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44117</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44117</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44117</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44118</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44118</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44137</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44146</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44159</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44168</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44168</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44207</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44216</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44243</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44250</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44265</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44265</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44278</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44278</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44278</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44278</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44284</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44292</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44293</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44300</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>44321</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44334</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10399,7 +10399,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         <v>44342</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>44377</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44377</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44379</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44386</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>44398</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>44400</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>44407</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>44419</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>44421</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>44421</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>44421</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44433</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>44434</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>44434</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         <v>44440</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>44453</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>44454</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44466</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>44481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44512</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44525</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44536</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>44538</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>44552</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>44552</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>44579</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44580</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44614</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>44614</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>44621</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>44652</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>44735</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>44738</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44746</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44746</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44746</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44797</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44846</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44847</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44847</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44855</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44861</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>44861</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44861</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44864</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>44864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>44864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44865</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44879</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44879</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>44880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>44881</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44897</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>44923</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>44965</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44965</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>44965</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>44970</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>44970</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>44970</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44977</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44977</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44977</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45001</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>45001</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>45001</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>45002</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>45070</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>45075</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>45090</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45097</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>45097</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45097</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>45097</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>45111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>45111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>45153</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt GULLSPÅNG.xlsx
+++ b/Översikt GULLSPÅNG.xlsx
@@ -572,7 +572,7 @@
         <v>43718</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44580</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44832</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>43335</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43336</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>43342</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43353</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43363</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43367</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43392</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43412</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43418</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43431</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43468</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43468</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43468</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43497</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>43497</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43504</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43525</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43530</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43532</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43532</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>43532</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>43544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43551</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43589</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43636</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43664</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43664</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>43691</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43691</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43691</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43691</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>43693</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43705</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43718</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43719</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43725</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43726</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43726</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43727</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43727</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43734</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43737</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43754</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43772</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43781</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43782</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43782</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43783</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43783</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>43803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>43805</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43811</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43811</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43838</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43844</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43847</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43850</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43854</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43857</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43861</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43861</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43867</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43880</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43906</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43906</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>43909</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>43923</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>43944</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>43944</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>43949</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>43997</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44018</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44064</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44069</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44083</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44090</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44104</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44105</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>44112</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>44112</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44112</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44117</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44117</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44117</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44118</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44118</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44137</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44146</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44159</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44168</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44168</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44207</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44216</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44243</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44250</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44265</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44265</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44278</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44278</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44278</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44278</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44284</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44292</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44293</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44300</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>44321</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44334</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10399,7 +10399,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         <v>44342</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>44377</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44377</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44379</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44386</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>44398</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>44400</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>44407</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>44419</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>44421</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>44421</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>44421</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44433</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>44434</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>44434</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         <v>44440</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>44453</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>44454</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44466</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>44481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44512</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44525</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44536</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>44538</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>44552</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>44552</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>44579</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44580</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44614</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>44614</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>44621</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>44652</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>44735</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>44738</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44746</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44746</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44746</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44797</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44846</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44847</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44847</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44855</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44861</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>44861</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44861</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44864</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>44864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>44864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44865</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44879</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44879</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>44880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>44881</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44897</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>44923</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>44965</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44965</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>44965</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>44970</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>44970</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>44970</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44977</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44977</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44977</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45001</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>45001</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>45001</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>45002</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>45070</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>45075</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>45090</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45097</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>45097</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45097</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>45097</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>45111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>45111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>45153</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt GULLSPÅNG.xlsx
+++ b/Översikt GULLSPÅNG.xlsx
@@ -572,7 +572,7 @@
         <v>43718</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44580</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44832</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>43335</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43336</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>43342</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43353</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43363</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43367</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43392</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43412</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43418</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43431</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43468</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43468</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43468</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43497</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>43497</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43504</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43525</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43530</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43532</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43532</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>43532</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>43544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43551</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43589</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43636</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43664</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43664</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>43691</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43691</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43691</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43691</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>43693</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43705</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43718</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43719</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43725</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43726</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43726</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43727</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43727</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43734</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43737</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43754</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43772</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43781</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43782</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43782</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43783</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43783</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>43803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>43805</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43811</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43811</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43838</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43844</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43847</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43850</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43854</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43857</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43861</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43861</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43867</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43880</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43906</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43906</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>43909</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>43923</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>43944</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>43944</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>43949</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>43997</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44018</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44064</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44069</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44083</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44090</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44104</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44105</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>44112</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>44112</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44112</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44117</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44117</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44117</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44118</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44118</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44137</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44146</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44159</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44168</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44168</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44207</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44216</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44243</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44250</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44265</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44265</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44278</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44278</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44278</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44278</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44284</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44292</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44293</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44300</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>44321</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44334</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10399,7 +10399,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         <v>44342</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>44377</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44377</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44379</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44386</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>44398</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>44400</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>44407</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>44419</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>44421</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>44421</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>44421</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44433</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>44434</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>44434</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         <v>44440</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>44453</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>44454</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44466</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>44481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44512</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44525</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44536</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>44538</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>44552</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>44552</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>44579</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44580</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44614</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>44614</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>44621</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>44652</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>44735</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>44738</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44746</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44746</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44746</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44797</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44846</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44847</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44847</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44855</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44861</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>44861</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44861</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44864</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>44864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>44864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44865</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44879</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44879</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>44880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>44881</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44897</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>44923</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>44965</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44965</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>44965</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>44970</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>44970</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>44970</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44977</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44977</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44977</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45001</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>45001</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>45001</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>45002</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>45070</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>45075</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>45090</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45097</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>45097</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45097</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>45097</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>45111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>45111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>45153</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt GULLSPÅNG.xlsx
+++ b/Översikt GULLSPÅNG.xlsx
@@ -572,7 +572,7 @@
         <v>43718</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44580</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44832</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>43335</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43336</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>43342</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43353</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43363</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43367</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43392</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43412</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43418</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43431</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43468</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43468</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43468</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43497</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>43497</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43504</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43525</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43530</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43532</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43532</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>43532</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>43544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43551</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43589</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43636</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43664</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43664</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>43691</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43691</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43691</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43691</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>43693</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43705</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43718</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43719</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43725</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43726</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43726</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43727</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43727</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43734</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43737</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43754</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43772</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43781</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43782</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43782</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43783</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43783</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>43803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>43805</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43811</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43811</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43838</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43844</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43847</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43850</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43854</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43857</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43861</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43861</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43867</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43880</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43906</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43906</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>43909</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>43923</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>43944</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>43944</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>43949</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>43997</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44018</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44064</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44069</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44083</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44090</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44104</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44105</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>44112</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>44112</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44112</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44117</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44117</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44117</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44118</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44118</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44137</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44146</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44159</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44168</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44168</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44207</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44216</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44243</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44250</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44265</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44265</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44278</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44278</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44278</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44278</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44284</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44292</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44293</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44300</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>44321</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44334</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10399,7 +10399,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         <v>44342</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>44377</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44377</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44379</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44386</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>44398</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>44400</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>44407</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>44419</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>44421</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>44421</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>44421</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44433</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>44434</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>44434</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         <v>44440</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>44453</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>44454</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44466</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>44481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44512</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44525</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44536</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>44538</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>44552</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>44552</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>44579</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44580</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44614</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>44614</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>44621</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>44652</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>44735</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>44738</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44746</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44746</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44746</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44797</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44846</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44847</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44847</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44855</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44861</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>44861</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44861</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44864</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>44864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>44864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44865</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44879</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44879</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>44880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>44881</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44897</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>44923</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>44965</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44965</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>44965</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>44970</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>44970</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>44970</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44977</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44977</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44977</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45001</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>45001</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>45001</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>45002</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>45070</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>45075</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>45090</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45097</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>45097</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45097</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>45097</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>45111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>45111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>45153</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt GULLSPÅNG.xlsx
+++ b/Översikt GULLSPÅNG.xlsx
@@ -572,7 +572,7 @@
         <v>43718</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44580</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44832</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>43335</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43336</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>43342</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43353</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43363</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43367</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43392</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43412</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43418</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43431</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43468</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43468</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43468</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43497</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>43497</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43504</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43525</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43530</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43532</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43532</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>43532</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>43544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43551</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43589</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43636</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43664</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43664</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>43691</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43691</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43691</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43691</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>43693</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43705</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43718</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43719</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43725</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43726</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43726</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43727</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43727</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43734</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43737</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43754</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43772</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43781</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43782</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43782</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43783</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43783</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>43803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>43805</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43811</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43811</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43838</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43844</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43847</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43850</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43854</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43857</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43861</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43861</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43867</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43880</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43906</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43906</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>43909</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>43923</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>43944</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>43944</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>43949</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>43997</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44018</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44064</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44069</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44083</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44090</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44104</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44105</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>44112</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>44112</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44112</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44117</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44117</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44117</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44118</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44118</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44137</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44146</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44159</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44168</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44168</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44207</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44216</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44243</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44250</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44265</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44265</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44278</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44278</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44278</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44278</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44284</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44292</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44293</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44300</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>44321</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44334</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10399,7 +10399,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         <v>44342</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>44377</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44377</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44379</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44386</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>44398</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>44400</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>44407</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>44419</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>44421</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>44421</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>44421</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44433</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>44434</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>44434</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         <v>44440</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>44453</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>44454</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44466</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>44481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44512</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44525</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44536</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>44538</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>44552</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>44552</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>44579</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44580</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44614</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>44614</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>44621</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>44652</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>44735</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>44738</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44746</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44746</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44746</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44797</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44846</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44847</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44847</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44855</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44861</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>44861</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44861</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44864</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>44864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>44864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44865</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44879</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44879</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>44880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>44881</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44897</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>44923</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>44965</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44965</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>44965</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>44970</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>44970</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>44970</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44977</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44977</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44977</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45001</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>45001</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>45001</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>45002</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>45070</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>45075</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>45090</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45097</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>45097</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45097</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>45097</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>45111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>45111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>45153</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt GULLSPÅNG.xlsx
+++ b/Översikt GULLSPÅNG.xlsx
@@ -572,7 +572,7 @@
         <v>43718</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44580</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44832</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>43335</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43336</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>43342</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43353</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43363</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43367</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43392</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43412</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43418</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43431</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43468</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43468</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43468</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43497</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>43497</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43504</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43525</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43530</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43532</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43532</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>43532</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>43544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43551</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43589</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43636</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43664</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43664</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>43691</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43691</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43691</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43691</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>43693</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43705</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43718</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43719</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43725</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43726</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43726</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43727</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43727</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43734</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43737</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43754</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43772</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43781</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43782</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43782</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43783</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43783</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>43803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>43805</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43811</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43811</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43838</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43844</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43847</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43850</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43854</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43857</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43861</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43861</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43867</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43880</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43906</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43906</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>43909</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>43923</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>43944</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>43944</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>43949</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>43997</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44018</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44064</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44069</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44083</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44090</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44104</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44105</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>44112</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>44112</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44112</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44117</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44117</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44117</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44118</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44118</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44137</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44146</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44159</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44168</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44168</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44207</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44216</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44243</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44250</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44265</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44265</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44278</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44278</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44278</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44278</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44284</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44292</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44293</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44300</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>44321</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44334</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10399,7 +10399,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         <v>44342</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>44377</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44377</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44379</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44386</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>44398</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>44400</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>44407</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>44419</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>44421</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>44421</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>44421</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44433</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>44434</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>44434</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         <v>44440</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>44453</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>44454</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44466</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>44481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44512</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44525</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44536</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>44538</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>44552</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>44552</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>44579</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44580</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44614</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>44614</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>44621</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>44652</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>44735</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>44738</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44746</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44746</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44746</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44797</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44846</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44847</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44847</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44855</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44861</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>44861</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44861</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44864</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>44864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>44864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44865</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44879</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44879</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>44880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>44881</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44897</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>44923</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>44965</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44965</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>44965</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>44970</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>44970</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>44970</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44977</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44977</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44977</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45001</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>45001</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>45001</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>45002</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>45070</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>45075</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>45090</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45097</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>45097</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45097</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>45097</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>45111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>45111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>45153</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt GULLSPÅNG.xlsx
+++ b/Översikt GULLSPÅNG.xlsx
@@ -572,7 +572,7 @@
         <v>43718</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44580</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44832</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>43335</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43336</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>43342</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43353</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43363</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43367</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43392</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43412</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43418</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43431</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43468</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43468</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43468</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43497</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>43497</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43504</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43525</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43530</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43532</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43532</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>43532</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>43544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43551</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43589</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43636</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43664</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43664</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>43691</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43691</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43691</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43691</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>43693</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43705</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43718</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43719</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43725</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43726</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43726</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43727</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43727</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43734</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43737</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43754</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43772</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43781</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43782</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43782</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43783</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43783</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>43803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>43805</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43811</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43811</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43838</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43844</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43847</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43850</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43854</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43857</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43861</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43861</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43867</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43880</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43906</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43906</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>43909</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>43923</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>43944</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>43944</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>43949</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>43997</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44018</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44064</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44069</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44083</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44090</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44104</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44105</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>44112</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>44112</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44112</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44117</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44117</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44117</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44118</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44118</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44137</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44146</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44159</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44168</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44168</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44207</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44216</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44243</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44250</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44265</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44265</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44278</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44278</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44278</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44278</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44284</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44292</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44293</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44300</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>44321</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44334</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10399,7 +10399,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         <v>44342</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>44377</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44377</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44379</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44386</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>44398</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>44400</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>44407</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>44419</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>44421</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>44421</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>44421</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44433</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>44434</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>44434</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         <v>44440</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>44453</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>44454</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44466</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>44481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44512</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44525</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44536</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>44538</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>44552</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>44552</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>44579</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44580</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44614</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>44614</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>44621</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>44652</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>44735</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>44738</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44746</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44746</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44746</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44797</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44846</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44847</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44847</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44855</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44861</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>44861</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44861</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44864</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>44864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>44864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44865</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44879</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44879</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>44880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>44881</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44897</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>44923</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>44965</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44965</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>44965</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>44970</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>44970</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>44970</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44977</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44977</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44977</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45001</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>45001</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>45001</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>45002</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>45070</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>45075</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>45090</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45097</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>45097</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45097</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>45097</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>45111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>45111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>45153</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt GULLSPÅNG.xlsx
+++ b/Översikt GULLSPÅNG.xlsx
@@ -572,7 +572,7 @@
         <v>43718</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44580</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44832</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>43335</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43336</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>43342</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43353</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43363</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43367</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43392</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43412</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43418</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43431</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43468</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43468</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43468</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43497</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>43497</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43504</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43525</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43530</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43532</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43532</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>43532</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>43544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43551</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43589</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43636</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43664</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43664</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>43691</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43691</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43691</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43691</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>43693</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43705</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43718</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43719</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43725</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43726</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43726</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43727</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43727</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43734</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43737</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43754</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43772</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43781</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43782</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43782</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43783</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43783</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>43803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>43805</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43811</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43811</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43838</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43844</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43847</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43850</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43854</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43857</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43861</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43861</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43867</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43880</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43906</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43906</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>43909</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>43923</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>43944</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>43944</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>43949</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>43997</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44018</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44064</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44069</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44083</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44090</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44104</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44105</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>44112</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>44112</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44112</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44117</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44117</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44117</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44118</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44118</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44137</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44146</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44159</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44168</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44168</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44207</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44216</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44243</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44250</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44265</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44265</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44278</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44278</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44278</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44278</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44284</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44292</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44293</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44300</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>44321</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44334</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10399,7 +10399,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         <v>44342</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>44377</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44377</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44379</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44386</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>44398</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>44400</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>44407</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>44419</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>44421</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>44421</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>44421</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44433</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>44434</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>44434</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         <v>44440</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>44453</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>44454</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44466</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>44481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44512</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44525</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44536</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>44538</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>44552</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>44552</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>44579</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44580</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44614</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>44614</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>44621</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>44652</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>44735</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>44738</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44746</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44746</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44746</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44797</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44846</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44847</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44847</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44855</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44861</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>44861</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44861</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44864</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>44864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>44864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44865</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44879</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44879</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>44880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>44881</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44897</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>44923</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>44965</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44965</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>44965</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>44970</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>44970</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>44970</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44977</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44977</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44977</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45001</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>45001</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>45001</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>45002</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>45070</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>45075</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>45090</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45097</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>45097</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45097</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>45097</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>45111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>45111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>45153</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt GULLSPÅNG.xlsx
+++ b/Översikt GULLSPÅNG.xlsx
@@ -572,7 +572,7 @@
         <v>43718</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -624,27 +624,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/artfynd/A 46759-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/artfynd/A 46759-2019.xlsx", "A 46759-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/kartor/A 46759-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/kartor/A 46759-2019.png", "A 46759-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomål/A 46759-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomål/A 46759-2019.docx", "A 46759-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomålsmail/A 46759-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomålsmail/A 46759-2019.docx", "A 46759-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsyn/A 46759-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsyn/A 46759-2019.docx", "A 46759-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsynsmail/A 46759-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsynsmail/A 46759-2019.docx", "A 46759-2019")</f>
         <v/>
       </c>
     </row>
@@ -658,7 +658,7 @@
         <v>44396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -710,27 +710,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/artfynd/A 37138-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/artfynd/A 37138-2021.xlsx", "A 37138-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/kartor/A 37138-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/kartor/A 37138-2021.png", "A 37138-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomål/A 37138-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomål/A 37138-2021.docx", "A 37138-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomålsmail/A 37138-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomålsmail/A 37138-2021.docx", "A 37138-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsyn/A 37138-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsyn/A 37138-2021.docx", "A 37138-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsynsmail/A 37138-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsynsmail/A 37138-2021.docx", "A 37138-2021")</f>
         <v/>
       </c>
     </row>
@@ -744,7 +744,7 @@
         <v>43319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -795,27 +795,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/artfynd/A 34462-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/artfynd/A 34462-2018.xlsx", "A 34462-2018")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/kartor/A 34462-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/kartor/A 34462-2018.png", "A 34462-2018")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomål/A 34462-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomål/A 34462-2018.docx", "A 34462-2018")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomålsmail/A 34462-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomålsmail/A 34462-2018.docx", "A 34462-2018")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsyn/A 34462-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsyn/A 34462-2018.docx", "A 34462-2018")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsynsmail/A 34462-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsynsmail/A 34462-2018.docx", "A 34462-2018")</f>
         <v/>
       </c>
     </row>
@@ -829,7 +829,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -880,27 +880,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/artfynd/A 65741-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/artfynd/A 65741-2018.xlsx", "A 65741-2018")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/kartor/A 65741-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/kartor/A 65741-2018.png", "A 65741-2018")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomål/A 65741-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomål/A 65741-2018.docx", "A 65741-2018")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomålsmail/A 65741-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomålsmail/A 65741-2018.docx", "A 65741-2018")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsyn/A 65741-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsyn/A 65741-2018.docx", "A 65741-2018")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsynsmail/A 65741-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsynsmail/A 65741-2018.docx", "A 65741-2018")</f>
         <v/>
       </c>
     </row>
@@ -914,7 +914,7 @@
         <v>43803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -965,27 +965,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/artfynd/A 66572-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/artfynd/A 66572-2019.xlsx", "A 66572-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/kartor/A 66572-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/kartor/A 66572-2019.png", "A 66572-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomål/A 66572-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomål/A 66572-2019.docx", "A 66572-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomålsmail/A 66572-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomålsmail/A 66572-2019.docx", "A 66572-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsyn/A 66572-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsyn/A 66572-2019.docx", "A 66572-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsynsmail/A 66572-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsynsmail/A 66572-2019.docx", "A 66572-2019")</f>
         <v/>
       </c>
     </row>
@@ -999,7 +999,7 @@
         <v>44112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1050,27 +1050,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/artfynd/A 51309-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/artfynd/A 51309-2020.xlsx", "A 51309-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/kartor/A 51309-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/kartor/A 51309-2020.png", "A 51309-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomål/A 51309-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomål/A 51309-2020.docx", "A 51309-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomålsmail/A 51309-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomålsmail/A 51309-2020.docx", "A 51309-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsyn/A 51309-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsyn/A 51309-2020.docx", "A 51309-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsynsmail/A 51309-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsynsmail/A 51309-2020.docx", "A 51309-2020")</f>
         <v/>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
         <v>44580</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1135,31 +1135,31 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/artfynd/A 2637-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/artfynd/A 2637-2022.xlsx", "A 2637-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/kartor/A 2637-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/kartor/A 2637-2022.png", "A 2637-2022")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/knärot/A 2637-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/knärot/A 2637-2022.png", "A 2637-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomål/A 2637-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomål/A 2637-2022.docx", "A 2637-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomålsmail/A 2637-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomålsmail/A 2637-2022.docx", "A 2637-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsyn/A 2637-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsyn/A 2637-2022.docx", "A 2637-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsynsmail/A 2637-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsynsmail/A 2637-2022.docx", "A 2637-2022")</f>
         <v/>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
         <v>44832</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1224,27 +1224,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/artfynd/A 42776-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/artfynd/A 42776-2022.xlsx", "A 42776-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/kartor/A 42776-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/kartor/A 42776-2022.png", "A 42776-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomål/A 42776-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomål/A 42776-2022.docx", "A 42776-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomålsmail/A 42776-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomålsmail/A 42776-2022.docx", "A 42776-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsyn/A 42776-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsyn/A 42776-2022.docx", "A 42776-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsynsmail/A 42776-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsynsmail/A 42776-2022.docx", "A 42776-2022")</f>
         <v/>
       </c>
     </row>
@@ -1258,7 +1258,7 @@
         <v>45159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1309,27 +1309,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/artfynd/A 37767-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/artfynd/A 37767-2023.xlsx", "A 37767-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/kartor/A 37767-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/kartor/A 37767-2023.png", "A 37767-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomål/A 37767-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomål/A 37767-2023.docx", "A 37767-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomålsmail/A 37767-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/klagomålsmail/A 37767-2023.docx", "A 37767-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsyn/A 37767-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsyn/A 37767-2023.docx", "A 37767-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsynsmail/A 37767-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GULLSPANG/tillsynsmail/A 37767-2023.docx", "A 37767-2023")</f>
         <v/>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>43335</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43336</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>43342</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43353</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43363</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43367</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43392</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43412</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43418</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43431</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43468</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43468</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43468</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43497</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>43497</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43504</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43525</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43530</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43532</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43532</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>43532</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>43544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43551</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43589</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43636</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43664</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43664</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>43691</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43691</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43691</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43691</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>43693</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43705</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43718</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43719</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43725</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43726</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43726</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43727</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43727</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43734</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43737</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43754</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43772</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43781</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43782</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43782</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43783</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43783</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>43803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>43805</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43811</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43811</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43838</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43844</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43847</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43850</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43854</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43857</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43861</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43861</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43867</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43880</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43906</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43906</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>43909</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>43923</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>43944</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>43944</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>43949</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>43997</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44018</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44064</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44069</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44083</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44090</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44104</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44105</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>44112</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>44112</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44112</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44117</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44117</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44117</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44118</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44118</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44137</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44146</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44159</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44168</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44168</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44207</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44216</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44243</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44250</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44265</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44265</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44278</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44278</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44278</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44278</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44284</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44292</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44293</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44300</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>44321</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44334</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10399,7 +10399,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         <v>44342</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>44377</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44377</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44379</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44386</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>44398</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>44400</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>44407</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>44419</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>44421</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>44421</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>44421</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44433</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>44434</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>44434</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         <v>44440</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>44453</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>44454</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44466</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>44481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44512</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44525</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44536</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>44538</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>44552</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>44552</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>44579</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44580</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44614</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>44614</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>44621</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>44652</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>44735</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>44738</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44746</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44746</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44746</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44797</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44846</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44847</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44847</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44855</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44861</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>44861</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44861</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44864</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>44864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>44864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44865</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44879</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44879</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>44880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>44881</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44897</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>44923</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>44965</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44965</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>44965</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>44970</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>44970</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>44970</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44977</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44977</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44977</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45001</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>45001</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>45001</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>45002</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>45070</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>45075</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>45090</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45097</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>45097</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45097</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>45097</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>45111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>45111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>45153</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt GULLSPÅNG.xlsx
+++ b/Översikt GULLSPÅNG.xlsx
@@ -572,7 +572,7 @@
         <v>43718</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44580</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44832</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>43335</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43336</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>43342</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43353</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43363</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43367</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43392</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43412</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43418</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43431</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43468</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43468</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43468</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43497</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>43497</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43504</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43525</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43530</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43532</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43532</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>43532</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>43544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43551</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43589</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43636</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43664</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43664</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>43691</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43691</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43691</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43691</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>43693</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43705</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43718</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43719</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43725</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43726</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43726</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43727</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43727</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43734</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43737</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43754</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43772</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43781</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43782</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43782</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43783</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43783</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>43803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>43805</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43811</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43811</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43838</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43844</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43847</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43850</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43854</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43857</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43861</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43861</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43867</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43880</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43906</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43906</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>43909</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>43923</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>43944</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>43944</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>43949</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>43997</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44018</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44064</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44069</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44083</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44090</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44104</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44105</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>44112</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>44112</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44112</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44117</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44117</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44117</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44118</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44118</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44137</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44146</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44159</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44168</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44168</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44207</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44216</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44243</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44250</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44265</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44265</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44278</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44278</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44278</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44278</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44284</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44292</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44293</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44300</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>44321</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44334</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10399,7 +10399,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         <v>44342</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>44377</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44377</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44379</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44386</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>44398</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>44400</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>44407</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>44419</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>44421</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>44421</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>44421</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44433</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>44434</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>44434</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         <v>44440</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>44453</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>44454</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44466</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>44481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44512</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44525</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44536</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>44538</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>44552</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>44552</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>44579</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44580</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44614</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>44614</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>44621</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>44652</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>44735</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>44738</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44746</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44746</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44746</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44797</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44846</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44847</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44847</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44855</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44861</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>44861</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44861</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44864</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>44864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>44864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44865</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44879</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44879</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>44880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>44881</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44897</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>44923</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>44965</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44965</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>44965</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>44970</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>44970</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>44970</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44977</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44977</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44977</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45001</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>45001</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>45001</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>45002</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>45070</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>45075</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>45090</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45097</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>45097</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45097</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>45097</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>45111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>45111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>45153</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt GULLSPÅNG.xlsx
+++ b/Översikt GULLSPÅNG.xlsx
@@ -572,7 +572,7 @@
         <v>43718</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44580</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44832</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>43335</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43336</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>43342</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43353</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43363</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43367</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43392</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43412</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43418</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43431</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43468</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43468</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43468</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43497</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>43497</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43504</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43525</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43530</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43532</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43532</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>43532</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>43544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43551</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43589</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43636</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43664</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43664</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>43691</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43691</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43691</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43691</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>43693</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43705</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43718</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43719</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43725</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43726</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43726</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43727</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43727</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43734</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43737</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43754</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43772</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43781</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43782</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43782</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43783</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43783</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>43803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>43805</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43811</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43811</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43838</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43844</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43847</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43850</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43854</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43857</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43861</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43861</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43867</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43880</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43906</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43906</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>43909</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>43923</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>43944</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>43944</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>43949</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>43997</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44018</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44064</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44069</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44083</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44090</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44104</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44105</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>44112</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>44112</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44112</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44117</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44117</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44117</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44118</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44118</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44137</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44146</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44159</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44168</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44168</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44207</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44216</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44243</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44250</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44265</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44265</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44278</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44278</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44278</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44278</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44284</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44292</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44293</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44300</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>44321</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44334</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10399,7 +10399,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         <v>44342</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>44377</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44377</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44379</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44386</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>44398</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>44400</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>44407</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>44419</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>44421</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>44421</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>44421</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44433</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>44434</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>44434</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         <v>44440</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>44453</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>44454</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44466</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>44481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44512</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44525</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44536</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>44538</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>44552</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>44552</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>44579</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44580</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44614</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>44614</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>44621</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>44652</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>44735</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>44738</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44746</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44746</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44746</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44797</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44846</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44847</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44847</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44855</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44861</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>44861</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44861</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44864</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>44864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>44864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44865</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44879</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44879</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>44880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>44881</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44897</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>44923</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>44965</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44965</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>44965</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>44970</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>44970</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>44970</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44977</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44977</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44977</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45001</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>45001</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>45001</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>45002</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>45070</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>45075</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>45090</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45097</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>45097</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45097</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>45097</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>45111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>45111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>45153</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt GULLSPÅNG.xlsx
+++ b/Översikt GULLSPÅNG.xlsx
@@ -572,7 +572,7 @@
         <v>43718</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44580</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44832</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>43335</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43336</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>43342</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43353</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43363</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43367</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43392</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43412</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43418</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43431</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43468</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43468</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43468</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43497</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>43497</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43504</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43525</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43530</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43532</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43532</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>43532</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>43544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43551</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43589</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43636</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43664</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43664</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>43691</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43691</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43691</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43691</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>43693</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43705</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43718</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43719</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43725</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43726</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43726</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43727</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43727</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43734</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43737</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43754</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43772</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43781</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43782</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43782</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43783</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43783</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>43803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>43805</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43811</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43811</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43838</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43844</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43847</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43850</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43854</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43857</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43861</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43861</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43867</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43880</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43906</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43906</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>43909</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>43923</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>43944</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>43944</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>43949</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>43997</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44018</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44064</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44069</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44083</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44090</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44104</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44105</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>44112</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>44112</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44112</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44117</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44117</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44117</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44118</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44118</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44137</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44146</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44159</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44168</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44168</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44207</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44216</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44243</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44250</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44265</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44265</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44278</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44278</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44278</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44278</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44284</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44292</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44293</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44300</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>44321</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44334</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10399,7 +10399,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         <v>44342</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>44377</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44377</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44379</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44386</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>44398</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>44400</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>44407</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>44419</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>44421</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>44421</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>44421</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44433</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>44434</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>44434</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         <v>44440</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>44453</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>44454</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44466</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>44481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44512</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44525</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44536</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>44538</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>44552</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>44552</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>44579</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44580</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44614</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>44614</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>44621</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>44652</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>44735</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>44738</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44746</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44746</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44746</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44797</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44846</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44847</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44847</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44855</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44861</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>44861</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44861</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44864</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>44864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>44864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44865</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44879</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44879</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>44880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>44881</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44897</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>44923</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>44965</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44965</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>44965</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>44970</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>44970</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>44970</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44977</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44977</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44977</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45001</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>45001</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>45001</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>45002</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>45070</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>45075</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>45090</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45097</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>45097</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45097</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>45097</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>45111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>45111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>45153</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt GULLSPÅNG.xlsx
+++ b/Översikt GULLSPÅNG.xlsx
@@ -572,7 +572,7 @@
         <v>43718</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44580</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44832</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>43335</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43336</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>43342</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43353</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43363</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43367</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43392</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43412</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43418</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43431</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43468</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43468</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43468</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43497</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>43497</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43504</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43525</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43530</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43532</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43532</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>43532</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>43544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43551</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43589</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43636</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43664</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43664</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>43691</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43691</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43691</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43691</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>43693</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43705</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43718</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43719</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43725</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43726</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43726</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43727</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43727</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43734</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43737</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43754</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43772</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43781</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43782</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43782</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43783</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43783</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>43803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>43805</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43811</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43811</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43838</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43844</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43847</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43850</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43854</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43857</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43861</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43861</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43867</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43880</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43906</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43906</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>43909</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>43923</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>43944</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>43944</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>43949</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>43997</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44018</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44064</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44069</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44083</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44090</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44104</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44105</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>44112</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>44112</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44112</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44117</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44117</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44117</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44118</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44118</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44137</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44146</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44159</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44168</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44168</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44207</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44216</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44243</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44250</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44265</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44265</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44278</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44278</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44278</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44278</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44284</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44292</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44293</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44300</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>44321</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44334</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10399,7 +10399,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         <v>44342</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>44377</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44377</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44379</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44386</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>44398</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>44400</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>44407</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>44419</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>44421</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>44421</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>44421</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44433</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>44434</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>44434</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         <v>44440</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>44453</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>44454</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44466</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>44481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44512</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44525</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44536</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>44538</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>44552</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>44552</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>44579</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44580</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44614</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>44614</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>44621</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>44652</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>44735</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>44738</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44746</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44746</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44746</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44797</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44846</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44847</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44847</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44855</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44861</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>44861</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44861</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44864</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>44864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>44864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44865</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44879</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44879</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>44880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>44881</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44897</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>44923</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>44965</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44965</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>44965</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>44970</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>44970</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>44970</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44977</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44977</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44977</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45001</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>45001</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>45001</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>45002</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>45070</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>45075</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>45090</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45097</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>45097</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45097</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>45097</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>45111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>45111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>45153</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt GULLSPÅNG.xlsx
+++ b/Översikt GULLSPÅNG.xlsx
@@ -572,7 +572,7 @@
         <v>43718</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44580</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44832</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>43335</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43336</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>43342</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43353</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43363</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43367</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43392</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43412</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43418</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43431</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43468</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43468</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43468</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43497</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>43497</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43504</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43525</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43530</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43532</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43532</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>43532</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>43544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43551</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43589</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43636</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43664</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43664</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>43691</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43691</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43691</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43691</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>43693</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43705</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43718</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43719</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43725</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43726</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43726</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43727</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43727</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43734</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43737</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43754</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43772</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43781</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43782</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43782</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43783</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43783</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>43803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>43805</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43811</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43811</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43838</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43844</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43847</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43850</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43854</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43857</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43861</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43861</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43867</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43880</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43906</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43906</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>43909</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>43923</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>43944</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>43944</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>43949</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>43997</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44018</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44064</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44069</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44083</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44090</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44104</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44105</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>44112</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>44112</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44112</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44117</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44117</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44117</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44118</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44118</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44137</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44146</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44159</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44168</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44168</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44207</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44216</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44243</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44250</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44265</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44265</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44278</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44278</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44278</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44278</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44284</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44292</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44293</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44300</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>44321</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44334</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10399,7 +10399,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         <v>44342</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>44377</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44377</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44379</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44386</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>44398</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>44400</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>44407</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>44419</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>44421</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>44421</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>44421</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44433</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>44434</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>44434</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         <v>44440</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>44453</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>44454</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44466</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>44481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44512</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44525</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44536</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>44538</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>44552</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>44552</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>44579</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44580</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44614</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>44614</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>44621</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>44652</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>44735</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>44738</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44746</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44746</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44746</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44797</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44846</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44847</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44847</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44855</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44861</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>44861</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44861</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44864</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>44864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>44864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44865</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44879</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44879</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>44880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>44881</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44897</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>44923</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>44965</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44965</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>44965</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>44970</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>44970</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>44970</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44977</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44977</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44977</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45001</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>45001</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>45001</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>45002</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>45070</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>45075</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>45090</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45097</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>45097</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45097</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>45097</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>45111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>45111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>45153</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt GULLSPÅNG.xlsx
+++ b/Översikt GULLSPÅNG.xlsx
@@ -572,7 +572,7 @@
         <v>43718</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44580</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44832</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>43335</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43336</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>43342</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43353</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43363</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43367</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43392</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43412</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43418</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43431</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43468</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43468</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43468</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43497</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>43497</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43504</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43525</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43530</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43532</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43532</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>43532</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>43544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43551</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43589</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43636</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43664</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43664</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>43691</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43691</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43691</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43691</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>43693</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43705</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43718</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43719</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43725</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43726</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43726</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43727</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43727</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43734</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43737</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43754</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43772</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43781</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43782</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43782</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43783</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43783</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>43803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>43805</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43811</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43811</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43838</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43844</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43847</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43850</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43854</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43857</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43861</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43861</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43867</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43880</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43906</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43906</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>43909</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>43923</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>43944</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>43944</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>43949</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>43997</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44018</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44064</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44069</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44083</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44090</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44104</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44105</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>44112</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>44112</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44112</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44117</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44117</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44117</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44118</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44118</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44137</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44146</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44159</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44168</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44168</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44207</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44216</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44243</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44250</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44265</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44265</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44278</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44278</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44278</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44278</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44284</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44292</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44293</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44300</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>44321</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44334</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10399,7 +10399,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         <v>44342</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>44377</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44377</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44379</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44386</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>44398</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>44400</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>44407</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>44419</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>44421</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>44421</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>44421</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44433</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>44434</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>44434</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         <v>44440</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>44453</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>44454</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44466</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>44481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44512</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44525</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44536</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>44538</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>44552</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>44552</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>44579</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44580</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44614</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>44614</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>44621</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>44652</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>44735</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>44738</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44746</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44746</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44746</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44797</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44846</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44847</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44847</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44855</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44861</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>44861</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44861</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44864</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>44864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>44864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44865</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44879</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44879</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>44880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>44881</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44897</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>44923</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>44965</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44965</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>44965</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>44970</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>44970</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>44970</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44977</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44977</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44977</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45001</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>45001</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>45001</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>45002</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>45070</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>45075</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>45090</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45097</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>45097</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45097</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>45097</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>45111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>45111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>45153</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt GULLSPÅNG.xlsx
+++ b/Översikt GULLSPÅNG.xlsx
@@ -572,7 +572,7 @@
         <v>43718</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44580</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44832</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>43335</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43336</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>43342</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43353</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43363</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43367</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43392</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43412</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43418</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43431</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43468</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43468</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43468</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43497</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>43497</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43504</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43525</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43530</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43532</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43532</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>43532</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>43544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43551</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43589</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43636</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43664</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43664</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>43691</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43691</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43691</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43691</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>43693</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43705</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43718</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43719</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43725</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43726</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43726</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43727</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43727</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43734</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43737</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43754</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43772</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43781</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43782</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43782</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43783</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43783</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>43803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>43805</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43811</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43811</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43838</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43844</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43847</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43850</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43854</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43857</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43861</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43861</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43867</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43880</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43906</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43906</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>43909</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>43923</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>43944</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>43944</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>43949</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>43997</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44018</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44064</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44069</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44083</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44090</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44104</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44105</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>44112</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>44112</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44112</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44117</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44117</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44117</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44118</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44118</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44137</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44146</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44159</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44168</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44168</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44207</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44216</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44243</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44250</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44265</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44265</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44278</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44278</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44278</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44278</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44284</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44292</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44293</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44300</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>44321</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44334</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10399,7 +10399,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         <v>44342</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>44377</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44377</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44379</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44386</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>44398</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>44400</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>44407</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>44419</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>44421</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>44421</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>44421</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44433</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>44434</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>44434</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         <v>44440</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>44453</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>44454</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44466</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>44481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44512</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44525</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44536</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>44538</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>44552</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>44552</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>44579</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44580</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44614</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>44614</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>44621</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>44652</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>44735</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>44738</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44746</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44746</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44746</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44797</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44846</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44847</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44847</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44855</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44861</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>44861</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44861</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44864</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>44864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>44864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44865</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44879</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44879</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>44880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>44881</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44897</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>44923</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>44965</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44965</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>44965</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>44970</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>44970</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>44970</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44977</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44977</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44977</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45001</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>45001</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>45001</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>45002</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>45070</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>45075</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>45090</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45097</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>45097</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45097</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>45097</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>45111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>45111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>45153</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>

--- a/Översikt GULLSPÅNG.xlsx
+++ b/Översikt GULLSPÅNG.xlsx
@@ -572,7 +572,7 @@
         <v>43718</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44396</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44580</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44832</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>43335</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>43336</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>43342</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43353</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43363</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43367</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43392</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43412</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43418</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43431</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43468</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43468</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43468</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>43473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43497</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>43497</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43504</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43525</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43530</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43532</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43532</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>43532</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>43535</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>43544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43551</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43589</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43636</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43664</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43664</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>43691</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43691</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43691</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43691</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>43693</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43705</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43718</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43719</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43725</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43726</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43726</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43727</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43727</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43734</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43737</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43754</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43772</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43781</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43782</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43782</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43783</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43783</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>43803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>43805</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43811</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43811</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43838</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43844</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43847</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43850</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43854</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43857</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43861</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43861</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43867</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43880</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43906</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43906</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>43909</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>43923</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>43944</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>43944</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>43949</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>43997</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44018</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44064</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44064</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44069</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44083</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44090</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44096</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44104</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44105</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>44112</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>44112</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44112</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44117</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44117</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44117</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44118</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44118</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44137</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44146</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44159</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44168</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44168</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44207</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44216</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44243</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44250</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44265</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44265</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44278</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44278</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44278</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44278</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44284</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44292</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44293</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44300</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>44321</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44334</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10399,7 +10399,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         <v>44342</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>44377</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44377</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44379</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44386</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>44398</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>44400</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>44407</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>44419</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>44421</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>44421</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>44421</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44433</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>44434</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>44434</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         <v>44440</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>44453</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>44454</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44466</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>44481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44512</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44525</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44536</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>44538</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>44552</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>44552</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>44579</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>44580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44580</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44614</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>44614</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>44614</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>44621</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>44652</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>44679</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>44735</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>44738</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44746</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44746</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44746</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44797</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>44832</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44846</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44847</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44847</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44855</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44861</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>44861</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44861</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44864</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>44864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>44864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44865</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44879</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44879</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>44880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>44881</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44897</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>44923</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>44965</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44965</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>44965</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>44970</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>44970</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>44970</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44977</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44977</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44977</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45001</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>45001</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>45001</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>45002</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>45070</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>45075</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>45090</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45097</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>45097</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45097</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>45097</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>45111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>45111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>45153</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
